--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Ltbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lta-Ltbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Lta</t>
+  </si>
+  <si>
+    <t>Ltbr</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lta</t>
-  </si>
-  <si>
-    <t>Ltbr</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H2">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J2">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N2">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P2">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q2">
-        <v>1.905880570752</v>
+        <v>3.166375322142667</v>
       </c>
       <c r="R2">
-        <v>17.152925136768</v>
+        <v>28.497377899284</v>
       </c>
       <c r="S2">
-        <v>0.006003667590859055</v>
+        <v>0.006926806577103871</v>
       </c>
       <c r="T2">
-        <v>0.006003667590859055</v>
+        <v>0.006926806577103871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>26</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H3">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J3">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N3">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O3">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P3">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q3">
-        <v>4.669047355803222</v>
+        <v>4.228599075098222</v>
       </c>
       <c r="R3">
-        <v>42.021426202229</v>
+        <v>38.057391675884</v>
       </c>
       <c r="S3">
-        <v>0.01470785143644214</v>
+        <v>0.00925054199370935</v>
       </c>
       <c r="T3">
-        <v>0.01470785143644214</v>
+        <v>0.00925054199370935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H4">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J4">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N4">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P4">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q4">
-        <v>3.623460638819112</v>
+        <v>3.917113619564445</v>
       </c>
       <c r="R4">
-        <v>32.611145749372</v>
+        <v>35.25402257608</v>
       </c>
       <c r="S4">
-        <v>0.01141417439155082</v>
+        <v>0.008569132090412247</v>
       </c>
       <c r="T4">
-        <v>0.01141417439155082</v>
+        <v>0.008569132090412249</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H5">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J5">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N5">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O5">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P5">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q5">
-        <v>1.580792322306666</v>
+        <v>1.183807595382222</v>
       </c>
       <c r="R5">
-        <v>14.22713090076</v>
+        <v>10.65426835844</v>
       </c>
       <c r="S5">
-        <v>0.004979615081319962</v>
+        <v>0.002589713916848683</v>
       </c>
       <c r="T5">
-        <v>0.004979615081319962</v>
+        <v>0.002589713916848683</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H6">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J6">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N6">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P6">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q6">
-        <v>3.226604209504444</v>
+        <v>3.236530090269778</v>
       </c>
       <c r="R6">
-        <v>29.03943788554</v>
+        <v>29.128770812428</v>
       </c>
       <c r="S6">
-        <v>0.01016404669757868</v>
+        <v>0.007080278121010811</v>
       </c>
       <c r="T6">
-        <v>0.01016404669757868</v>
+        <v>0.007080278121010812</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2316776666666667</v>
+        <v>0.2098226666666667</v>
       </c>
       <c r="H7">
-        <v>0.695033</v>
+        <v>0.629468</v>
       </c>
       <c r="I7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="J7">
-        <v>0.05734977095011434</v>
+        <v>0.04075277404866083</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N7">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P7">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q7">
-        <v>3.200055338970444</v>
+        <v>2.896444126688</v>
       </c>
       <c r="R7">
-        <v>28.800498050734</v>
+        <v>26.067997140192</v>
       </c>
       <c r="S7">
-        <v>0.01008041575236368</v>
+        <v>0.006336301349575873</v>
       </c>
       <c r="T7">
-        <v>0.01008041575236368</v>
+        <v>0.006336301349575873</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H8">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J8">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N8">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P8">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q8">
-        <v>0.78381444096</v>
+        <v>1.171291461616667</v>
       </c>
       <c r="R8">
-        <v>7.054329968639999</v>
+        <v>10.54162315455</v>
       </c>
       <c r="S8">
-        <v>0.002469074625479873</v>
+        <v>0.002562333449005568</v>
       </c>
       <c r="T8">
-        <v>0.002469074625479873</v>
+        <v>0.002562333449005568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H9">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J9">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,25 +998,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N9">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O9">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P9">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q9">
-        <v>1.92019730888</v>
+        <v>1.564224543005555</v>
       </c>
       <c r="R9">
-        <v>17.28177577992</v>
+        <v>14.07802088705</v>
       </c>
       <c r="S9">
-        <v>0.006048766396117337</v>
+        <v>0.003421919308424292</v>
       </c>
       <c r="T9">
-        <v>0.006048766396117339</v>
+        <v>0.003421919308424292</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H10">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J10">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N10">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P10">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q10">
-        <v>1.49018821984</v>
+        <v>1.449001230111111</v>
       </c>
       <c r="R10">
-        <v>13.41169397856</v>
+        <v>13.041011071</v>
       </c>
       <c r="S10">
-        <v>0.004694205322741347</v>
+        <v>0.003169855190815882</v>
       </c>
       <c r="T10">
-        <v>0.004694205322741348</v>
+        <v>0.003169855190815883</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H11">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J11">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N11">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O11">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P11">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q11">
-        <v>0.6501183071999999</v>
+        <v>0.4379088350555556</v>
       </c>
       <c r="R11">
-        <v>5.851064764799999</v>
+        <v>3.9411795155</v>
       </c>
       <c r="S11">
-        <v>0.002047921717162347</v>
+        <v>0.000957975442021224</v>
       </c>
       <c r="T11">
-        <v>0.002047921717162348</v>
+        <v>0.0009579754420212242</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H12">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J12">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N12">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P12">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q12">
-        <v>1.3269766288</v>
+        <v>1.197242801094444</v>
       </c>
       <c r="R12">
-        <v>11.9427896592</v>
+        <v>10.77518520985</v>
       </c>
       <c r="S12">
-        <v>0.004180076497138825</v>
+        <v>0.002619104959231236</v>
       </c>
       <c r="T12">
-        <v>0.004180076497138825</v>
+        <v>0.002619104959231236</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,31 +1210,31 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.09527999999999999</v>
+        <v>0.07761666666666667</v>
       </c>
       <c r="H13">
-        <v>0.28584</v>
+        <v>0.23285</v>
       </c>
       <c r="I13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="J13">
-        <v>0.02358572690560115</v>
+        <v>0.01507508473382392</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N13">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P13">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q13">
-        <v>1.31605811248</v>
+        <v>1.0714397156</v>
       </c>
       <c r="R13">
-        <v>11.84452301232</v>
+        <v>9.6429574404</v>
       </c>
       <c r="S13">
-        <v>0.004145682346961416</v>
+        <v>0.00234389638432572</v>
       </c>
       <c r="T13">
-        <v>0.004145682346961417</v>
+        <v>0.00234389638432572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H14">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J14">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.226432000000001</v>
+        <v>15.090721</v>
       </c>
       <c r="N14">
-        <v>24.679296</v>
+        <v>45.272163</v>
       </c>
       <c r="O14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="P14">
-        <v>0.1046851189010213</v>
+        <v>0.169971412714946</v>
       </c>
       <c r="Q14">
-        <v>28.191710991744</v>
+        <v>73.35950588875268</v>
       </c>
       <c r="R14">
-        <v>253.725398925696</v>
+        <v>660.235552998774</v>
       </c>
       <c r="S14">
-        <v>0.08880601660429138</v>
+        <v>0.1604822726888366</v>
       </c>
       <c r="T14">
-        <v>0.08880601660429138</v>
+        <v>0.1604822726888366</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,14 +1334,14 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
         <v>3</v>
       </c>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H15">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J15">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>20.15320433333333</v>
       </c>
       <c r="N15">
-        <v>60.459613</v>
+        <v>60.45961299999999</v>
       </c>
       <c r="O15">
-        <v>0.2564587650966515</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="P15">
-        <v>0.2564587650966516</v>
+        <v>0.226991713071207</v>
       </c>
       <c r="Q15">
-        <v>69.06436619459033</v>
+        <v>97.96941524320822</v>
       </c>
       <c r="R15">
-        <v>621.579295751313</v>
+        <v>881.7247371888739</v>
       </c>
       <c r="S15">
-        <v>0.2175579642128783</v>
+        <v>0.2143192517690733</v>
       </c>
       <c r="T15">
-        <v>0.2175579642128783</v>
+        <v>0.2143192517690733</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H16">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J16">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>15.64009466666667</v>
+        <v>18.66868666666667</v>
       </c>
       <c r="N16">
-        <v>46.920284</v>
+        <v>56.00606</v>
       </c>
       <c r="O16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="P16">
-        <v>0.1990273753922999</v>
+        <v>0.2102711359030499</v>
       </c>
       <c r="Q16">
-        <v>53.59808829954267</v>
+        <v>90.75282946776444</v>
       </c>
       <c r="R16">
-        <v>482.382794695884</v>
+        <v>816.7754652098799</v>
       </c>
       <c r="S16">
-        <v>0.1688380219590569</v>
+        <v>0.1985321486218218</v>
       </c>
       <c r="T16">
-        <v>0.168838021959057</v>
+        <v>0.1985321486218218</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H17">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J17">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.823239999999999</v>
+        <v>5.641943333333334</v>
       </c>
       <c r="N17">
-        <v>20.46972</v>
+        <v>16.92583</v>
       </c>
       <c r="O17">
-        <v>0.0868288573576253</v>
+        <v>0.06354693581733691</v>
       </c>
       <c r="P17">
-        <v>0.08682885735762531</v>
+        <v>0.06354693581733692</v>
       </c>
       <c r="Q17">
-        <v>23.38301831308</v>
+        <v>27.42679923548222</v>
       </c>
       <c r="R17">
-        <v>210.44716481772</v>
+        <v>246.84119311934</v>
       </c>
       <c r="S17">
-        <v>0.07365827186501572</v>
+        <v>0.059999246458467</v>
       </c>
       <c r="T17">
-        <v>0.07365827186501572</v>
+        <v>0.05999924645846701</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,10 +1520,10 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H18">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J18">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.92712666666667</v>
+        <v>15.42507366666667</v>
       </c>
       <c r="N18">
-        <v>41.78138</v>
+        <v>46.275221</v>
       </c>
       <c r="O18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="P18">
-        <v>0.1772290722210533</v>
+        <v>0.1737373292074942</v>
       </c>
       <c r="Q18">
-        <v>47.72780349148666</v>
+        <v>74.98487199413979</v>
       </c>
       <c r="R18">
-        <v>429.55023142338</v>
+        <v>674.863847947258</v>
       </c>
       <c r="S18">
-        <v>0.1503461819182446</v>
+        <v>0.1640379461272521</v>
       </c>
       <c r="T18">
-        <v>0.1503461819182446</v>
+        <v>0.1640379461272521</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.426967</v>
+        <v>4.861232666666667</v>
       </c>
       <c r="H19">
-        <v>10.280901</v>
+        <v>14.583698</v>
       </c>
       <c r="I19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="J19">
-        <v>0.8483155728012935</v>
+        <v>0.9441721412175152</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>13.81253266666666</v>
+        <v>13.804248</v>
       </c>
       <c r="N19">
-        <v>41.43759799999999</v>
+        <v>41.412744</v>
       </c>
       <c r="O19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="P19">
-        <v>0.1757708110313487</v>
+        <v>0.1554814732859661</v>
       </c>
       <c r="Q19">
-        <v>47.33509363508865</v>
+        <v>67.105661316368</v>
       </c>
       <c r="R19">
-        <v>426.0158427157979</v>
+        <v>603.9509518473119</v>
       </c>
       <c r="S19">
-        <v>0.1491091162418065</v>
+        <v>0.1468012755520645</v>
       </c>
       <c r="T19">
-        <v>0.1491091162418065</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J20">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K20">
-        <v>3</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>8.226432000000001</v>
-      </c>
-      <c r="N20">
-        <v>24.679296</v>
-      </c>
-      <c r="O20">
-        <v>0.1046851189010213</v>
-      </c>
-      <c r="P20">
-        <v>0.1046851189010213</v>
-      </c>
-      <c r="Q20">
-        <v>2.351169108480001</v>
-      </c>
-      <c r="R20">
-        <v>21.16052197632</v>
-      </c>
-      <c r="S20">
-        <v>0.007406360080390962</v>
-      </c>
-      <c r="T20">
-        <v>0.007406360080390963</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J21">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>20.15320433333333</v>
-      </c>
-      <c r="N21">
-        <v>60.459613</v>
-      </c>
-      <c r="O21">
-        <v>0.2564587650966515</v>
-      </c>
-      <c r="P21">
-        <v>0.2564587650966516</v>
-      </c>
-      <c r="Q21">
-        <v>5.759920153162223</v>
-      </c>
-      <c r="R21">
-        <v>51.83928137846001</v>
-      </c>
-      <c r="S21">
-        <v>0.01814418305121372</v>
-      </c>
-      <c r="T21">
-        <v>0.01814418305121372</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G22">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J22">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>15.64009466666667</v>
-      </c>
-      <c r="N22">
-        <v>46.920284</v>
-      </c>
-      <c r="O22">
-        <v>0.1990273753922999</v>
-      </c>
-      <c r="P22">
-        <v>0.1990273753922999</v>
-      </c>
-      <c r="Q22">
-        <v>4.470043323031113</v>
-      </c>
-      <c r="R22">
-        <v>40.23038990728001</v>
-      </c>
-      <c r="S22">
-        <v>0.01408097371895077</v>
-      </c>
-      <c r="T22">
-        <v>0.01408097371895077</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23">
-        <v>2</v>
-      </c>
-      <c r="F23">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G23">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J23">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>6.823239999999999</v>
-      </c>
-      <c r="N23">
-        <v>20.46972</v>
-      </c>
-      <c r="O23">
-        <v>0.0868288573576253</v>
-      </c>
-      <c r="P23">
-        <v>0.08682885735762531</v>
-      </c>
-      <c r="Q23">
-        <v>1.950127480266667</v>
-      </c>
-      <c r="R23">
-        <v>17.5511473224</v>
-      </c>
-      <c r="S23">
-        <v>0.006143048694127274</v>
-      </c>
-      <c r="T23">
-        <v>0.006143048694127275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>2</v>
-      </c>
-      <c r="F24">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G24">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J24">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>13.92712666666667</v>
-      </c>
-      <c r="N24">
-        <v>41.78138</v>
-      </c>
-      <c r="O24">
-        <v>0.1772290722210533</v>
-      </c>
-      <c r="P24">
-        <v>0.1772290722210533</v>
-      </c>
-      <c r="Q24">
-        <v>3.980465648844445</v>
-      </c>
-      <c r="R24">
-        <v>35.8241908396</v>
-      </c>
-      <c r="S24">
-        <v>0.01253876710809114</v>
-      </c>
-      <c r="T24">
-        <v>0.01253876710809114</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-      <c r="F25">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G25">
-        <v>0.2858066666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.8574200000000001</v>
-      </c>
-      <c r="I25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="J25">
-        <v>0.07074892934299097</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>13.81253266666666</v>
-      </c>
-      <c r="N25">
-        <v>41.43759799999999</v>
-      </c>
-      <c r="O25">
-        <v>0.1757708110313487</v>
-      </c>
-      <c r="P25">
-        <v>0.1757708110313487</v>
-      </c>
-      <c r="Q25">
-        <v>3.947713919684444</v>
-      </c>
-      <c r="R25">
-        <v>35.52942527716</v>
-      </c>
-      <c r="S25">
-        <v>0.01243559669021711</v>
-      </c>
-      <c r="T25">
-        <v>0.01243559669021711</v>
+        <v>0.1468012755520645</v>
       </c>
     </row>
   </sheetData>
